--- a/26. Recherche opérationelle en Excel/12 - MULTIPLE- EXCELLENT FICHIER AVEC TRANSPORT,SAC A DOS,/Distribution et logistique - Examples multiples .xlsx
+++ b/26. Recherche opérationelle en Excel/12 - MULTIPLE- EXCELLENT FICHIER AVEC TRANSPORT,SAC A DOS,/Distribution et logistique - Examples multiples .xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Transport1" sheetId="2" r:id="rId2"/>
     <sheet name="Transport2" sheetId="3" r:id="rId3"/>
     <sheet name="Transport3" sheetId="4" r:id="rId4"/>
@@ -312,8 +312,11 @@
     <definedName name="solver_mip" localSheetId="2" hidden="1">1000</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">1000</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
@@ -363,6 +366,7 @@
     <definedName name="solver_pro" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_pro" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_red" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_red" localSheetId="4" hidden="1">0.00001</definedName>
     <definedName name="solver_red" localSheetId="6" hidden="1">0.000001</definedName>
@@ -472,6 +476,7 @@
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
@@ -487,6 +492,7 @@
     <definedName name="solver_sol" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_sol" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">1000</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">1000</definedName>
@@ -519,7 +525,7 @@
     <definedName name="solver_ver" localSheetId="4">1.3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver">1.2</definedName>
     <definedName name="sssolver_drv" localSheetId="5" hidden="1">1</definedName>
@@ -638,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="250">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1192,6 +1198,18 @@
     <t xml:space="preserve">some users prefer to split problems like this one into a set of smaller, simpler models. </t>
   </si>
   <si>
+    <t>Distribution/Logistique Exemples</t>
+  </si>
+  <si>
+    <t>Sur chaque exemple de feuille de travail, lisez les commentaires au bas de la feuille, puis</t>
+  </si>
+  <si>
+    <t>cliquez sur Outils Solveur... pour examiner les variables de décision, les contraintes et l'objectif.</t>
+  </si>
+  <si>
+    <t>Pour trouver la solution optimale, cliquez sur le bouton Résoudre.</t>
+  </si>
+  <si>
     <t>Un groupe important d'applications Solver est basé sur des modèles de distribution ou de réseau.</t>
   </si>
   <si>
@@ -1234,18 +1252,6 @@
     <t>divisez ces modèles en plus petits pour simplifier le problème.</t>
   </si>
   <si>
-    <t>Sur chaque exemple de feuille de travail, lisez les commentaires au bas de la feuille, puis</t>
-  </si>
-  <si>
-    <t>cliquez sur Outils Solveur... pour examiner les variables de décision, les contraintes et l'objectif.</t>
-  </si>
-  <si>
-    <t>Pour trouver la solution optimale, cliquez sur le bouton Résoudre.</t>
-  </si>
-  <si>
-    <t>Distribution/Logistique Exemples</t>
-  </si>
-  <si>
     <t>Problème</t>
   </si>
   <si>
@@ -1303,6 +1309,9 @@
     <t>l'offre disponible de chaque usine et répondant à la demande de chaque client.</t>
   </si>
   <si>
+    <t>Coût du transport ($ par produit)</t>
+  </si>
+  <si>
     <t>Client1</t>
   </si>
   <si>
@@ -1318,31 +1327,88 @@
     <t>Client 5</t>
   </si>
   <si>
-    <t>Client 2</t>
+    <t>Usine 1</t>
+  </si>
+  <si>
+    <t>Usine 2</t>
   </si>
   <si>
     <t>Capacité</t>
   </si>
   <si>
-    <t>Usine 1</t>
-  </si>
-  <si>
-    <t>Usine 2</t>
-  </si>
-  <si>
-    <t>Usine  2</t>
-  </si>
-  <si>
     <t>Demande</t>
   </si>
   <si>
-    <t>Coût du transport ($ par produit)</t>
-  </si>
-  <si>
-    <t>Nombre d'objets envoyés</t>
-  </si>
-  <si>
-    <t>Coût total de l'envoi</t>
+    <t>Coût total de l'expédition</t>
+  </si>
+  <si>
+    <t>Nombre de produits expédiés</t>
+  </si>
+  <si>
+    <t>Minimiser les coûts d'expédition des marchandises des usines aux entrepôts et aux clients, et</t>
+  </si>
+  <si>
+    <t>entrepôts aux clients, sans dépasser l'offre disponible de chaque usine ou</t>
+  </si>
+  <si>
+    <t>la capacité de chaque entrepôt, et répondre à la demande de chaque client.</t>
+  </si>
+  <si>
+    <t>Une entreprise possède 2 usines, 4 entrepôts et 5 clients. Il veut minimiser le coût d'expédition de ses</t>
+  </si>
+  <si>
+    <t>produit des usines aux entrepôts, des usines aux clients et des entrepôts au</t>
+  </si>
+  <si>
+    <t>les clients. Le nombre de produits reçus par un entrepôt depuis l'usine doit être le même que le</t>
+  </si>
+  <si>
+    <t>nombre de produits qui quittent l'entrepôt pour les clients. Comment l'entreprise doit-elle distribuer les produits ?</t>
+  </si>
+  <si>
+    <t>1) Les variables sont le nombre de produits à expédier des usines aux entrepôts, des usines aux</t>
+  </si>
+  <si>
+    <t>clients, et les entrepôts aux clients. Ceux-ci sont définis dans la feuille de travail Transport2 comme</t>
+  </si>
+  <si>
+    <t>Usine_vers_entrepôt, Usine_vers_client, Entrepôt_client.</t>
+  </si>
+  <si>
+    <t>2) Les contraintes logiques sont toutes définies via l'option Assume Non-Negative :</t>
+  </si>
+  <si>
+    <t>Usine_vers_entrepôt &gt;= 0</t>
+  </si>
+  <si>
+    <t>Usine_à_client &gt;= 0</t>
+  </si>
+  <si>
+    <t>Entrepôt_client &gt;= 0</t>
+  </si>
+  <si>
+    <t>Les autres contraintes sont</t>
+  </si>
+  <si>
+    <t>Total_from_factory &lt;= Capacité_usine</t>
+  </si>
+  <si>
+    <t>Total_to_customer &gt;= Demande</t>
+  </si>
+  <si>
+    <t>3) L'objectif est de minimiser le coût, donné par Total_cost.</t>
+  </si>
+  <si>
+    <t>Veuillez noter que la dernière contrainte doit être un '=' , car sinon les produits commenceraient à s'empiler à la</t>
+  </si>
+  <si>
+    <t>dépot. Il serait possible d'en faire un modèle multi-période où le stockage dans les entrepôts serait</t>
+  </si>
+  <si>
+    <t>possible et même souhaité, si les prix du transport fluctuaient au cours des différentes périodes. Dans</t>
+  </si>
+  <si>
+    <t>worksheet Transport3 nous allons nous intéresser à une situation multi-produits.</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1419,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -1417,8 +1483,13 @@
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1463,6 +1534,12 @@
       <patternFill patternType="darkTrellis">
         <fgColor indexed="9"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2474,7 +2551,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3136,7 +3213,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3145,6 +3221,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3158,6 +3235,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3556,17 +3653,17 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="8" max="8" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="253" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="6.75" customHeight="1">
@@ -3574,221 +3671,221 @@
     </row>
     <row r="3" spans="1:8" ht="13.2">
       <c r="A3" s="270" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2">
       <c r="A4" s="270" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.2">
       <c r="A5" s="270" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="6" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:8" ht="13.2">
-      <c r="A7" s="272" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="273"/>
-      <c r="C7" s="273"/>
-      <c r="D7" s="273"/>
-      <c r="E7" s="273"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="274"/>
+      <c r="A7" s="271" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="272"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="273"/>
     </row>
     <row r="8" spans="1:8" ht="13.2">
-      <c r="A8" s="275" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="271"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
-      <c r="G8" s="271"/>
+      <c r="A8" s="274" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
       <c r="H8" s="276"/>
     </row>
     <row r="9" spans="1:8" ht="13.2">
-      <c r="A9" s="275" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="271"/>
-      <c r="C9" s="271"/>
-      <c r="D9" s="271"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="271"/>
+      <c r="A9" s="274" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="275"/>
+      <c r="C9" s="275"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
       <c r="H9" s="276"/>
     </row>
     <row r="10" spans="1:8" ht="13.2">
-      <c r="A10" s="275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="271"/>
-      <c r="C10" s="271"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="271"/>
+      <c r="A10" s="274" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="275"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="275"/>
       <c r="H10" s="276"/>
     </row>
     <row r="11" spans="1:8" ht="13.2">
-      <c r="A11" s="275" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="271"/>
-      <c r="C11" s="271"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="271"/>
+      <c r="A11" s="274" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="275"/>
+      <c r="C11" s="275"/>
+      <c r="D11" s="275"/>
+      <c r="E11" s="275"/>
+      <c r="F11" s="275"/>
+      <c r="G11" s="275"/>
       <c r="H11" s="276"/>
     </row>
     <row r="12" spans="1:8" ht="13.2">
-      <c r="A12" s="275" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="271"/>
-      <c r="C12" s="271"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="271"/>
-      <c r="F12" s="271"/>
-      <c r="G12" s="271"/>
+      <c r="A12" s="274" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="275"/>
+      <c r="C12" s="275"/>
+      <c r="D12" s="275"/>
+      <c r="E12" s="275"/>
+      <c r="F12" s="275"/>
+      <c r="G12" s="275"/>
       <c r="H12" s="276"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="277"/>
-      <c r="B13" s="271"/>
-      <c r="C13" s="271"/>
-      <c r="D13" s="271"/>
-      <c r="E13" s="271"/>
-      <c r="F13" s="271"/>
-      <c r="G13" s="271"/>
+      <c r="B13" s="275"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
       <c r="H13" s="276"/>
     </row>
     <row r="14" spans="1:8" ht="13.2">
-      <c r="A14" s="275" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="271"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="271"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="271"/>
+      <c r="A14" s="274" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="275"/>
+      <c r="C14" s="275"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="275"/>
+      <c r="F14" s="275"/>
+      <c r="G14" s="275"/>
       <c r="H14" s="276"/>
     </row>
     <row r="15" spans="1:8" ht="13.2">
-      <c r="A15" s="275" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="271"/>
-      <c r="C15" s="271"/>
-      <c r="D15" s="271"/>
-      <c r="E15" s="271"/>
-      <c r="F15" s="271"/>
-      <c r="G15" s="271"/>
+      <c r="A15" s="274" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
       <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:8" ht="13.2">
-      <c r="A16" s="275" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
+      <c r="A16" s="274" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="275"/>
+      <c r="C16" s="275"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="275"/>
+      <c r="G16" s="275"/>
       <c r="H16" s="276"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="277"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="271"/>
+      <c r="B17" s="275"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="275"/>
+      <c r="E17" s="275"/>
+      <c r="F17" s="275"/>
+      <c r="G17" s="275"/>
       <c r="H17" s="276"/>
     </row>
     <row r="18" spans="1:8" ht="13.2">
-      <c r="A18" s="275" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
+      <c r="A18" s="274" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="275"/>
+      <c r="C18" s="275"/>
+      <c r="D18" s="275"/>
+      <c r="E18" s="275"/>
+      <c r="F18" s="275"/>
+      <c r="G18" s="275"/>
       <c r="H18" s="276"/>
     </row>
     <row r="19" spans="1:8" ht="13.2">
-      <c r="A19" s="275" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
+      <c r="A19" s="274" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
       <c r="H19" s="276"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="277"/>
-      <c r="B20" s="271"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="271"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="271"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="275"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="275"/>
+      <c r="G20" s="275"/>
       <c r="H20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="13.2">
-      <c r="A21" s="275" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="271"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="271"/>
-      <c r="E21" s="271"/>
-      <c r="F21" s="271"/>
-      <c r="G21" s="271"/>
+      <c r="A21" s="274" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="275"/>
+      <c r="C21" s="275"/>
+      <c r="D21" s="275"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="275"/>
+      <c r="G21" s="275"/>
       <c r="H21" s="276"/>
     </row>
     <row r="22" spans="1:8" ht="13.2">
-      <c r="A22" s="275" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="271"/>
-      <c r="C22" s="271"/>
-      <c r="D22" s="271"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="271"/>
-      <c r="G22" s="271"/>
+      <c r="A22" s="274" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="275"/>
+      <c r="C22" s="275"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="275"/>
       <c r="H22" s="276"/>
     </row>
     <row r="23" spans="1:8" ht="13.2">
-      <c r="A23" s="275" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="271"/>
-      <c r="C23" s="271"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="271"/>
-      <c r="F23" s="271"/>
-      <c r="G23" s="271"/>
+      <c r="A23" s="274" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="275"/>
+      <c r="C23" s="275"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="275"/>
+      <c r="G23" s="275"/>
       <c r="H23" s="276"/>
     </row>
     <row r="24" spans="1:8" ht="13.8" thickBot="1">
       <c r="A24" s="278" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B24" s="279"/>
       <c r="C24" s="279"/>
@@ -3806,17 +3903,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6"/>
   <cols>
     <col min="1" max="5" width="10.109375" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="15" max="15" width="41.21875" customWidth="1"/>
+    <col min="21" max="21" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3835,7 +3932,7 @@
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
       <c r="G3" s="6"/>
-      <c r="J3" s="272" t="s">
+      <c r="J3" s="271" t="s">
         <v>214</v>
       </c>
       <c r="K3" s="281"/>
@@ -3868,7 +3965,7 @@
     </row>
     <row r="6" spans="1:15" ht="13.2" thickTop="1">
       <c r="A6" s="16" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -3889,25 +3986,25 @@
     <row r="8" spans="1:15">
       <c r="A8" s="25"/>
       <c r="B8" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="30">
         <v>1.75</v>
@@ -3928,7 +4025,7 @@
     </row>
     <row r="10" spans="1:15" ht="13.2" thickBot="1">
       <c r="A10" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="41">
         <v>2</v>
@@ -3950,7 +4047,7 @@
     <row r="11" spans="1:15" ht="6" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="12" spans="1:15" ht="13.2" thickTop="1">
       <c r="A12" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -3963,30 +4060,30 @@
     <row r="13" spans="1:15" ht="13.2" thickBot="1">
       <c r="A13" s="25"/>
       <c r="B13" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C13" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="13.2" thickTop="1">
       <c r="A14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="115">
         <v>30000</v>
@@ -4013,8 +4110,8 @@
       <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:15" ht="13.2" thickBot="1">
-      <c r="A15" s="28" t="s">
-        <v>225</v>
+      <c r="A15" s="39" t="s">
+        <v>223</v>
       </c>
       <c r="B15" s="119">
         <v>0</v>
@@ -4068,9 +4165,9 @@
       <c r="H16" s="82"/>
       <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:23" ht="13.8" thickTop="1" thickBot="1">
+    <row r="17" spans="1:21" ht="13.8" thickTop="1" thickBot="1">
       <c r="A17" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="123">
         <v>30000</v>
@@ -4091,7 +4188,7 @@
       <c r="H17" s="126"/>
       <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="1:23" ht="4.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:21" ht="4.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="114"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -4101,9 +4198,9 @@
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:23" ht="13.8" thickTop="1" thickBot="1">
+    <row r="19" spans="1:21" ht="13.8" thickTop="1" thickBot="1">
       <c r="A19" s="88" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B19" s="91"/>
       <c r="C19" s="90">
@@ -4116,9 +4213,9 @@
       <c r="G19" s="91"/>
       <c r="H19" s="92"/>
     </row>
-    <row r="20" spans="1:23" ht="13.2" thickTop="1"/>
-    <row r="21" spans="1:23" ht="13.2" thickBot="1"/>
-    <row r="22" spans="1:23" ht="13.8" thickTop="1">
+    <row r="20" spans="1:21" ht="13.2" thickTop="1"/>
+    <row r="21" spans="1:21" ht="13.2" thickBot="1"/>
+    <row r="22" spans="1:21" ht="13.8" thickTop="1">
       <c r="A22" s="266" t="s">
         <v>18</v>
       </c>
@@ -4129,24 +4226,22 @@
       <c r="F22" s="255"/>
       <c r="G22" s="255"/>
       <c r="H22" s="256"/>
-      <c r="J22" s="272" t="s">
+      <c r="J22" s="285" t="s">
         <v>197</v>
       </c>
-      <c r="K22" s="273"/>
-      <c r="L22" s="273"/>
-      <c r="M22" s="273"/>
-      <c r="N22" s="273"/>
-      <c r="O22" s="273"/>
-      <c r="P22" s="273"/>
-      <c r="Q22" s="273"/>
-      <c r="R22" s="273"/>
-      <c r="S22" s="273"/>
-      <c r="T22" s="273"/>
-      <c r="U22" s="273"/>
-      <c r="V22" s="273"/>
-      <c r="W22" s="274"/>
-    </row>
-    <row r="23" spans="1:23" ht="13.2">
+      <c r="K22" s="272"/>
+      <c r="L22" s="272"/>
+      <c r="M22" s="272"/>
+      <c r="N22" s="272"/>
+      <c r="O22" s="272"/>
+      <c r="P22" s="272"/>
+      <c r="Q22" s="272"/>
+      <c r="R22" s="272"/>
+      <c r="S22" s="272"/>
+      <c r="T22" s="272"/>
+      <c r="U22" s="272"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.2">
       <c r="A23" s="262" t="s">
         <v>19</v>
       </c>
@@ -4157,24 +4252,22 @@
       <c r="F23" s="257"/>
       <c r="G23" s="257"/>
       <c r="H23" s="258"/>
-      <c r="J23" s="275" t="s">
+      <c r="J23" s="274" t="s">
         <v>198</v>
       </c>
-      <c r="K23" s="271"/>
-      <c r="L23" s="271"/>
-      <c r="M23" s="271"/>
-      <c r="N23" s="271"/>
-      <c r="O23" s="271"/>
-      <c r="P23" s="271"/>
-      <c r="Q23" s="271"/>
-      <c r="R23" s="271"/>
-      <c r="S23" s="271"/>
-      <c r="T23" s="271"/>
-      <c r="U23" s="271"/>
-      <c r="V23" s="271"/>
-      <c r="W23" s="276"/>
-    </row>
-    <row r="24" spans="1:23" ht="13.2">
+      <c r="K23" s="275"/>
+      <c r="L23" s="275"/>
+      <c r="M23" s="275"/>
+      <c r="N23" s="275"/>
+      <c r="O23" s="275"/>
+      <c r="P23" s="275"/>
+      <c r="Q23" s="275"/>
+      <c r="R23" s="275"/>
+      <c r="S23" s="275"/>
+      <c r="T23" s="275"/>
+      <c r="U23" s="275"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.2">
       <c r="A24" s="262" t="s">
         <v>20</v>
       </c>
@@ -4185,24 +4278,22 @@
       <c r="F24" s="257"/>
       <c r="G24" s="257"/>
       <c r="H24" s="258"/>
-      <c r="J24" s="275" t="s">
+      <c r="J24" s="274" t="s">
         <v>199</v>
       </c>
-      <c r="K24" s="271"/>
-      <c r="L24" s="271"/>
-      <c r="M24" s="271"/>
-      <c r="N24" s="271"/>
-      <c r="O24" s="271"/>
-      <c r="P24" s="271"/>
-      <c r="Q24" s="271"/>
-      <c r="R24" s="271"/>
-      <c r="S24" s="271"/>
-      <c r="T24" s="271"/>
-      <c r="U24" s="271"/>
-      <c r="V24" s="271"/>
-      <c r="W24" s="276"/>
-    </row>
-    <row r="25" spans="1:23" ht="13.2">
+      <c r="K24" s="275"/>
+      <c r="L24" s="275"/>
+      <c r="M24" s="275"/>
+      <c r="N24" s="275"/>
+      <c r="O24" s="275"/>
+      <c r="P24" s="275"/>
+      <c r="Q24" s="275"/>
+      <c r="R24" s="275"/>
+      <c r="S24" s="275"/>
+      <c r="T24" s="275"/>
+      <c r="U24" s="275"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.2">
       <c r="A25" s="262" t="s">
         <v>21</v>
       </c>
@@ -4213,24 +4304,22 @@
       <c r="F25" s="257"/>
       <c r="G25" s="257"/>
       <c r="H25" s="258"/>
-      <c r="J25" s="275" t="s">
+      <c r="J25" s="274" t="s">
         <v>200</v>
       </c>
-      <c r="K25" s="271"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="271"/>
-      <c r="O25" s="271"/>
-      <c r="P25" s="271"/>
-      <c r="Q25" s="271"/>
-      <c r="R25" s="271"/>
-      <c r="S25" s="271"/>
-      <c r="T25" s="271"/>
-      <c r="U25" s="271"/>
-      <c r="V25" s="271"/>
-      <c r="W25" s="276"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="K25" s="275"/>
+      <c r="L25" s="275"/>
+      <c r="M25" s="275"/>
+      <c r="N25" s="275"/>
+      <c r="O25" s="275"/>
+      <c r="P25" s="275"/>
+      <c r="Q25" s="275"/>
+      <c r="R25" s="275"/>
+      <c r="S25" s="275"/>
+      <c r="T25" s="275"/>
+      <c r="U25" s="275"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="262"/>
       <c r="B26" s="263"/>
       <c r="C26" s="257"/>
@@ -4240,21 +4329,19 @@
       <c r="G26" s="257"/>
       <c r="H26" s="258"/>
       <c r="J26" s="277"/>
-      <c r="K26" s="271"/>
-      <c r="L26" s="271"/>
-      <c r="M26" s="271"/>
-      <c r="N26" s="271"/>
-      <c r="O26" s="271"/>
-      <c r="P26" s="271"/>
-      <c r="Q26" s="271"/>
-      <c r="R26" s="271"/>
-      <c r="S26" s="271"/>
-      <c r="T26" s="271"/>
-      <c r="U26" s="271"/>
-      <c r="V26" s="271"/>
-      <c r="W26" s="276"/>
-    </row>
-    <row r="27" spans="1:23" ht="13.2">
+      <c r="K26" s="275"/>
+      <c r="L26" s="275"/>
+      <c r="M26" s="275"/>
+      <c r="N26" s="275"/>
+      <c r="O26" s="275"/>
+      <c r="P26" s="275"/>
+      <c r="Q26" s="275"/>
+      <c r="R26" s="275"/>
+      <c r="S26" s="275"/>
+      <c r="T26" s="275"/>
+      <c r="U26" s="275"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.2">
       <c r="A27" s="267" t="s">
         <v>22</v>
       </c>
@@ -4265,24 +4352,22 @@
       <c r="F27" s="257"/>
       <c r="G27" s="257"/>
       <c r="H27" s="258"/>
-      <c r="J27" s="275" t="s">
+      <c r="J27" s="286" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="271"/>
-      <c r="L27" s="271"/>
-      <c r="M27" s="271"/>
-      <c r="N27" s="271"/>
-      <c r="O27" s="271"/>
-      <c r="P27" s="271"/>
-      <c r="Q27" s="271"/>
-      <c r="R27" s="271"/>
-      <c r="S27" s="271"/>
-      <c r="T27" s="271"/>
-      <c r="U27" s="271"/>
-      <c r="V27" s="271"/>
-      <c r="W27" s="276"/>
-    </row>
-    <row r="28" spans="1:23" ht="13.2">
+      <c r="K27" s="275"/>
+      <c r="L27" s="275"/>
+      <c r="M27" s="275"/>
+      <c r="N27" s="275"/>
+      <c r="O27" s="275"/>
+      <c r="P27" s="275"/>
+      <c r="Q27" s="275"/>
+      <c r="R27" s="275"/>
+      <c r="S27" s="275"/>
+      <c r="T27" s="275"/>
+      <c r="U27" s="275"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.2">
       <c r="A28" s="262" t="s">
         <v>23</v>
       </c>
@@ -4293,24 +4378,22 @@
       <c r="F28" s="257"/>
       <c r="G28" s="257"/>
       <c r="H28" s="258"/>
-      <c r="J28" s="275" t="s">
+      <c r="J28" s="274" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="271"/>
-      <c r="L28" s="271"/>
-      <c r="M28" s="271"/>
-      <c r="N28" s="271"/>
-      <c r="O28" s="271"/>
-      <c r="P28" s="271"/>
-      <c r="Q28" s="271"/>
-      <c r="R28" s="271"/>
-      <c r="S28" s="271"/>
-      <c r="T28" s="271"/>
-      <c r="U28" s="271"/>
-      <c r="V28" s="271"/>
-      <c r="W28" s="276"/>
-    </row>
-    <row r="29" spans="1:23" ht="13.2">
+      <c r="K28" s="275"/>
+      <c r="L28" s="275"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="275"/>
+      <c r="O28" s="275"/>
+      <c r="P28" s="275"/>
+      <c r="Q28" s="275"/>
+      <c r="R28" s="275"/>
+      <c r="S28" s="275"/>
+      <c r="T28" s="275"/>
+      <c r="U28" s="275"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.2">
       <c r="A29" s="262" t="s">
         <v>24</v>
       </c>
@@ -4321,24 +4404,22 @@
       <c r="F29" s="257"/>
       <c r="G29" s="257"/>
       <c r="H29" s="258"/>
-      <c r="J29" s="275" t="s">
+      <c r="J29" s="274" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="271"/>
-      <c r="L29" s="271"/>
-      <c r="M29" s="271"/>
-      <c r="N29" s="271"/>
-      <c r="O29" s="271"/>
-      <c r="P29" s="271"/>
-      <c r="Q29" s="271"/>
-      <c r="R29" s="271"/>
-      <c r="S29" s="271"/>
-      <c r="T29" s="271"/>
-      <c r="U29" s="271"/>
-      <c r="V29" s="271"/>
-      <c r="W29" s="276"/>
-    </row>
-    <row r="30" spans="1:23" ht="13.2">
+      <c r="K29" s="275"/>
+      <c r="L29" s="275"/>
+      <c r="M29" s="275"/>
+      <c r="N29" s="275"/>
+      <c r="O29" s="275"/>
+      <c r="P29" s="275"/>
+      <c r="Q29" s="275"/>
+      <c r="R29" s="275"/>
+      <c r="S29" s="275"/>
+      <c r="T29" s="275"/>
+      <c r="U29" s="275"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.2">
       <c r="A30" s="262" t="s">
         <v>25</v>
       </c>
@@ -4349,24 +4430,22 @@
       <c r="F30" s="257"/>
       <c r="G30" s="257"/>
       <c r="H30" s="258"/>
-      <c r="J30" s="275" t="s">
+      <c r="J30" s="274" t="s">
         <v>203</v>
       </c>
-      <c r="K30" s="271"/>
-      <c r="L30" s="271"/>
-      <c r="M30" s="271"/>
-      <c r="N30" s="271"/>
-      <c r="O30" s="271"/>
-      <c r="P30" s="271"/>
-      <c r="Q30" s="271"/>
-      <c r="R30" s="271"/>
-      <c r="S30" s="271"/>
-      <c r="T30" s="271"/>
-      <c r="U30" s="271"/>
-      <c r="V30" s="271"/>
-      <c r="W30" s="276"/>
-    </row>
-    <row r="31" spans="1:23" ht="13.2">
+      <c r="K30" s="275"/>
+      <c r="L30" s="275"/>
+      <c r="M30" s="275"/>
+      <c r="N30" s="275"/>
+      <c r="O30" s="275"/>
+      <c r="P30" s="275"/>
+      <c r="Q30" s="275"/>
+      <c r="R30" s="275"/>
+      <c r="S30" s="275"/>
+      <c r="T30" s="275"/>
+      <c r="U30" s="275"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.2">
       <c r="A31" s="262"/>
       <c r="B31" s="263" t="s">
         <v>26</v>
@@ -4377,24 +4456,22 @@
       <c r="F31" s="257"/>
       <c r="G31" s="257"/>
       <c r="H31" s="258"/>
-      <c r="J31" s="275" t="s">
+      <c r="J31" s="274" t="s">
         <v>204</v>
       </c>
-      <c r="K31" s="271"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="271"/>
-      <c r="O31" s="271"/>
-      <c r="P31" s="271"/>
-      <c r="Q31" s="271"/>
-      <c r="R31" s="271"/>
-      <c r="S31" s="271"/>
-      <c r="T31" s="271"/>
-      <c r="U31" s="271"/>
-      <c r="V31" s="271"/>
-      <c r="W31" s="276"/>
-    </row>
-    <row r="32" spans="1:23" ht="13.2">
+      <c r="K31" s="275"/>
+      <c r="L31" s="275"/>
+      <c r="M31" s="275"/>
+      <c r="N31" s="275"/>
+      <c r="O31" s="275"/>
+      <c r="P31" s="275"/>
+      <c r="Q31" s="275"/>
+      <c r="R31" s="275"/>
+      <c r="S31" s="275"/>
+      <c r="T31" s="275"/>
+      <c r="U31" s="275"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.2">
       <c r="A32" s="262" t="s">
         <v>27</v>
       </c>
@@ -4405,24 +4482,22 @@
       <c r="F32" s="257"/>
       <c r="G32" s="257"/>
       <c r="H32" s="258"/>
-      <c r="J32" s="275" t="s">
+      <c r="J32" s="274" t="s">
         <v>205</v>
       </c>
-      <c r="K32" s="271"/>
-      <c r="L32" s="271"/>
-      <c r="M32" s="271"/>
-      <c r="N32" s="271"/>
-      <c r="O32" s="271"/>
-      <c r="P32" s="271"/>
-      <c r="Q32" s="271"/>
-      <c r="R32" s="271"/>
-      <c r="S32" s="271"/>
-      <c r="T32" s="271"/>
-      <c r="U32" s="271"/>
-      <c r="V32" s="271"/>
-      <c r="W32" s="276"/>
-    </row>
-    <row r="33" spans="1:23" ht="13.2">
+      <c r="K32" s="275"/>
+      <c r="L32" s="275"/>
+      <c r="M32" s="275"/>
+      <c r="N32" s="275"/>
+      <c r="O32" s="275"/>
+      <c r="P32" s="275"/>
+      <c r="Q32" s="275"/>
+      <c r="R32" s="275"/>
+      <c r="S32" s="275"/>
+      <c r="T32" s="275"/>
+      <c r="U32" s="275"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.2">
       <c r="A33" s="262"/>
       <c r="B33" s="263" t="s">
         <v>28</v>
@@ -4433,24 +4508,22 @@
       <c r="F33" s="257"/>
       <c r="G33" s="257"/>
       <c r="H33" s="258"/>
-      <c r="J33" s="275" t="s">
+      <c r="J33" s="274" t="s">
         <v>206</v>
       </c>
-      <c r="K33" s="271"/>
-      <c r="L33" s="271"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="271"/>
-      <c r="O33" s="271"/>
-      <c r="P33" s="271"/>
-      <c r="Q33" s="271"/>
-      <c r="R33" s="271"/>
-      <c r="S33" s="271"/>
-      <c r="T33" s="271"/>
-      <c r="U33" s="271"/>
-      <c r="V33" s="271"/>
-      <c r="W33" s="276"/>
-    </row>
-    <row r="34" spans="1:23" ht="13.2">
+      <c r="K33" s="275"/>
+      <c r="L33" s="275"/>
+      <c r="M33" s="275"/>
+      <c r="N33" s="275"/>
+      <c r="O33" s="275"/>
+      <c r="P33" s="275"/>
+      <c r="Q33" s="275"/>
+      <c r="R33" s="275"/>
+      <c r="S33" s="275"/>
+      <c r="T33" s="275"/>
+      <c r="U33" s="275"/>
+    </row>
+    <row r="34" spans="1:21" ht="13.2">
       <c r="A34" s="262"/>
       <c r="B34" s="263" t="s">
         <v>29</v>
@@ -4461,24 +4534,22 @@
       <c r="F34" s="257"/>
       <c r="G34" s="257"/>
       <c r="H34" s="258"/>
-      <c r="J34" s="275" t="s">
+      <c r="J34" s="274" t="s">
         <v>207</v>
       </c>
-      <c r="K34" s="271"/>
-      <c r="L34" s="271"/>
-      <c r="M34" s="271"/>
-      <c r="N34" s="271"/>
-      <c r="O34" s="271"/>
-      <c r="P34" s="271"/>
-      <c r="Q34" s="271"/>
-      <c r="R34" s="271"/>
-      <c r="S34" s="271"/>
-      <c r="T34" s="271"/>
-      <c r="U34" s="271"/>
-      <c r="V34" s="271"/>
-      <c r="W34" s="276"/>
-    </row>
-    <row r="35" spans="1:23" ht="13.2">
+      <c r="K34" s="275"/>
+      <c r="L34" s="275"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="275"/>
+      <c r="O34" s="275"/>
+      <c r="P34" s="275"/>
+      <c r="Q34" s="275"/>
+      <c r="R34" s="275"/>
+      <c r="S34" s="275"/>
+      <c r="T34" s="275"/>
+      <c r="U34" s="275"/>
+    </row>
+    <row r="35" spans="1:21" ht="13.2">
       <c r="A35" s="262" t="s">
         <v>30</v>
       </c>
@@ -4489,24 +4560,22 @@
       <c r="F35" s="257"/>
       <c r="G35" s="257"/>
       <c r="H35" s="258"/>
-      <c r="J35" s="275" t="s">
+      <c r="J35" s="274" t="s">
         <v>208</v>
       </c>
-      <c r="K35" s="271"/>
-      <c r="L35" s="271"/>
-      <c r="M35" s="271"/>
-      <c r="N35" s="271"/>
-      <c r="O35" s="271"/>
-      <c r="P35" s="271"/>
-      <c r="Q35" s="271"/>
-      <c r="R35" s="271"/>
-      <c r="S35" s="271"/>
-      <c r="T35" s="271"/>
-      <c r="U35" s="271"/>
-      <c r="V35" s="271"/>
-      <c r="W35" s="276"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="K35" s="275"/>
+      <c r="L35" s="275"/>
+      <c r="M35" s="275"/>
+      <c r="N35" s="275"/>
+      <c r="O35" s="275"/>
+      <c r="P35" s="275"/>
+      <c r="Q35" s="275"/>
+      <c r="R35" s="275"/>
+      <c r="S35" s="275"/>
+      <c r="T35" s="275"/>
+      <c r="U35" s="275"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="262"/>
       <c r="B36" s="263"/>
       <c r="C36" s="257"/>
@@ -4516,21 +4585,19 @@
       <c r="G36" s="257"/>
       <c r="H36" s="258"/>
       <c r="J36" s="277"/>
-      <c r="K36" s="271"/>
-      <c r="L36" s="271"/>
-      <c r="M36" s="271"/>
-      <c r="N36" s="271"/>
-      <c r="O36" s="271"/>
-      <c r="P36" s="271"/>
-      <c r="Q36" s="271"/>
-      <c r="R36" s="271"/>
-      <c r="S36" s="271"/>
-      <c r="T36" s="271"/>
-      <c r="U36" s="271"/>
-      <c r="V36" s="271"/>
-      <c r="W36" s="276"/>
-    </row>
-    <row r="37" spans="1:23" ht="13.2">
+      <c r="K36" s="275"/>
+      <c r="L36" s="275"/>
+      <c r="M36" s="275"/>
+      <c r="N36" s="275"/>
+      <c r="O36" s="275"/>
+      <c r="P36" s="275"/>
+      <c r="Q36" s="275"/>
+      <c r="R36" s="275"/>
+      <c r="S36" s="275"/>
+      <c r="T36" s="275"/>
+      <c r="U36" s="275"/>
+    </row>
+    <row r="37" spans="1:21" ht="13.2">
       <c r="A37" s="267" t="s">
         <v>31</v>
       </c>
@@ -4541,24 +4608,22 @@
       <c r="F37" s="257"/>
       <c r="G37" s="257"/>
       <c r="H37" s="258"/>
-      <c r="J37" s="275" t="s">
+      <c r="J37" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="K37" s="271"/>
-      <c r="L37" s="271"/>
-      <c r="M37" s="271"/>
-      <c r="N37" s="271"/>
-      <c r="O37" s="271"/>
-      <c r="P37" s="271"/>
-      <c r="Q37" s="271"/>
-      <c r="R37" s="271"/>
-      <c r="S37" s="271"/>
-      <c r="T37" s="271"/>
-      <c r="U37" s="271"/>
-      <c r="V37" s="271"/>
-      <c r="W37" s="276"/>
-    </row>
-    <row r="38" spans="1:23" ht="13.2">
+      <c r="K37" s="275"/>
+      <c r="L37" s="275"/>
+      <c r="M37" s="275"/>
+      <c r="N37" s="275"/>
+      <c r="O37" s="275"/>
+      <c r="P37" s="275"/>
+      <c r="Q37" s="275"/>
+      <c r="R37" s="275"/>
+      <c r="S37" s="275"/>
+      <c r="T37" s="275"/>
+      <c r="U37" s="275"/>
+    </row>
+    <row r="38" spans="1:21" ht="13.2">
       <c r="A38" s="262" t="s">
         <v>32</v>
       </c>
@@ -4569,24 +4634,22 @@
       <c r="F38" s="257"/>
       <c r="G38" s="257"/>
       <c r="H38" s="258"/>
-      <c r="J38" s="275" t="s">
+      <c r="J38" s="274" t="s">
         <v>210</v>
       </c>
-      <c r="K38" s="271"/>
-      <c r="L38" s="271"/>
-      <c r="M38" s="271"/>
-      <c r="N38" s="271"/>
-      <c r="O38" s="271"/>
-      <c r="P38" s="271"/>
-      <c r="Q38" s="271"/>
-      <c r="R38" s="271"/>
-      <c r="S38" s="271"/>
-      <c r="T38" s="271"/>
-      <c r="U38" s="271"/>
-      <c r="V38" s="271"/>
-      <c r="W38" s="276"/>
-    </row>
-    <row r="39" spans="1:23" ht="13.2">
+      <c r="K38" s="275"/>
+      <c r="L38" s="275"/>
+      <c r="M38" s="275"/>
+      <c r="N38" s="275"/>
+      <c r="O38" s="275"/>
+      <c r="P38" s="275"/>
+      <c r="Q38" s="275"/>
+      <c r="R38" s="275"/>
+      <c r="S38" s="275"/>
+      <c r="T38" s="275"/>
+      <c r="U38" s="275"/>
+    </row>
+    <row r="39" spans="1:21" ht="13.2">
       <c r="A39" s="269" t="s">
         <v>33</v>
       </c>
@@ -4597,24 +4660,22 @@
       <c r="F39" s="257"/>
       <c r="G39" s="257"/>
       <c r="H39" s="258"/>
-      <c r="J39" s="275" t="s">
+      <c r="J39" s="274" t="s">
         <v>211</v>
       </c>
-      <c r="K39" s="271"/>
-      <c r="L39" s="271"/>
-      <c r="M39" s="271"/>
-      <c r="N39" s="271"/>
-      <c r="O39" s="271"/>
-      <c r="P39" s="271"/>
-      <c r="Q39" s="271"/>
-      <c r="R39" s="271"/>
-      <c r="S39" s="271"/>
-      <c r="T39" s="271"/>
-      <c r="U39" s="271"/>
-      <c r="V39" s="271"/>
-      <c r="W39" s="276"/>
-    </row>
-    <row r="40" spans="1:23" ht="13.2">
+      <c r="K39" s="275"/>
+      <c r="L39" s="275"/>
+      <c r="M39" s="275"/>
+      <c r="N39" s="275"/>
+      <c r="O39" s="275"/>
+      <c r="P39" s="275"/>
+      <c r="Q39" s="275"/>
+      <c r="R39" s="275"/>
+      <c r="S39" s="275"/>
+      <c r="T39" s="275"/>
+      <c r="U39" s="275"/>
+    </row>
+    <row r="40" spans="1:21" ht="13.2">
       <c r="A40" s="262" t="s">
         <v>34</v>
       </c>
@@ -4625,24 +4686,22 @@
       <c r="F40" s="257"/>
       <c r="G40" s="257"/>
       <c r="H40" s="258"/>
-      <c r="J40" s="275" t="s">
+      <c r="J40" s="274" t="s">
         <v>212</v>
       </c>
-      <c r="K40" s="271"/>
-      <c r="L40" s="271"/>
-      <c r="M40" s="271"/>
-      <c r="N40" s="271"/>
-      <c r="O40" s="271"/>
-      <c r="P40" s="271"/>
-      <c r="Q40" s="271"/>
-      <c r="R40" s="271"/>
-      <c r="S40" s="271"/>
-      <c r="T40" s="271"/>
-      <c r="U40" s="271"/>
-      <c r="V40" s="271"/>
-      <c r="W40" s="276"/>
-    </row>
-    <row r="41" spans="1:23" ht="13.8" thickBot="1">
+      <c r="K40" s="275"/>
+      <c r="L40" s="275"/>
+      <c r="M40" s="275"/>
+      <c r="N40" s="275"/>
+      <c r="O40" s="275"/>
+      <c r="P40" s="275"/>
+      <c r="Q40" s="275"/>
+      <c r="R40" s="275"/>
+      <c r="S40" s="275"/>
+      <c r="T40" s="275"/>
+      <c r="U40" s="275"/>
+    </row>
+    <row r="41" spans="1:21" ht="13.8" thickBot="1">
       <c r="A41" s="264" t="s">
         <v>35</v>
       </c>
@@ -4667,10 +4726,8 @@
       <c r="S41" s="279"/>
       <c r="T41" s="279"/>
       <c r="U41" s="279"/>
-      <c r="V41" s="279"/>
-      <c r="W41" s="280"/>
-    </row>
-    <row r="42" spans="1:23" ht="13.2" thickTop="1"/>
+    </row>
+    <row r="42" spans="1:21" ht="13.2" thickTop="1"/>
   </sheetData>
   <scenarios current="0">
     <scenario name="test" count="10" user="Daniel H. Fylstra" comment="Created by Daniel H. Fylstra on 11/3/95">
@@ -4698,22 +4755,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6"/>
   <cols>
     <col min="1" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="3.75" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:7" ht="13.2" thickTop="1">
+      <c r="K1" s="287"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="289"/>
+    </row>
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" thickBot="1">
+      <c r="K2" s="290"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="292"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.8" thickTop="1">
       <c r="A3" s="93" t="s">
         <v>37</v>
       </c>
@@ -4723,8 +4805,21 @@
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
       <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="K3" s="293" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="291"/>
+      <c r="M3" s="291"/>
+      <c r="N3" s="291"/>
+      <c r="O3" s="291"/>
+      <c r="P3" s="291"/>
+      <c r="Q3" s="291"/>
+      <c r="R3" s="291"/>
+      <c r="S3" s="291"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="292"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.2">
       <c r="A4" s="96" t="s">
         <v>38</v>
       </c>
@@ -4734,8 +4829,21 @@
       <c r="E4" s="97"/>
       <c r="F4" s="98"/>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.2" thickBot="1">
+      <c r="K4" s="293" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="291"/>
+      <c r="M4" s="291"/>
+      <c r="N4" s="291"/>
+      <c r="O4" s="291"/>
+      <c r="P4" s="291"/>
+      <c r="Q4" s="291"/>
+      <c r="R4" s="291"/>
+      <c r="S4" s="291"/>
+      <c r="T4" s="291"/>
+      <c r="U4" s="292"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.8" thickBot="1">
       <c r="A5" s="99" t="s">
         <v>39</v>
       </c>
@@ -4745,21 +4853,56 @@
       <c r="E5" s="100"/>
       <c r="F5" s="101"/>
       <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="K5" s="293" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="291"/>
+      <c r="M5" s="291"/>
+      <c r="N5" s="291"/>
+      <c r="O5" s="291"/>
+      <c r="P5" s="291"/>
+      <c r="Q5" s="291"/>
+      <c r="R5" s="291"/>
+      <c r="S5" s="291"/>
+      <c r="T5" s="291"/>
+      <c r="U5" s="292"/>
+    </row>
+    <row r="6" spans="1:21" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.2" thickTop="1">
+      <c r="K6" s="290"/>
+      <c r="L6" s="291"/>
+      <c r="M6" s="291"/>
+      <c r="N6" s="291"/>
+      <c r="O6" s="291"/>
+      <c r="P6" s="291"/>
+      <c r="Q6" s="291"/>
+      <c r="R6" s="291"/>
+      <c r="S6" s="291"/>
+      <c r="T6" s="291"/>
+      <c r="U6" s="292"/>
+    </row>
+    <row r="7" spans="1:21" ht="13.2" thickTop="1">
       <c r="A7" s="16" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="K7" s="290"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="291"/>
+      <c r="N7" s="291"/>
+      <c r="O7" s="291"/>
+      <c r="P7" s="291"/>
+      <c r="Q7" s="291"/>
+      <c r="R7" s="291"/>
+      <c r="S7" s="291"/>
+      <c r="T7" s="291"/>
+      <c r="U7" s="292"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>5</v>
@@ -4768,8 +4911,19 @@
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="K8" s="290"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="291"/>
+      <c r="O8" s="291"/>
+      <c r="P8" s="291"/>
+      <c r="Q8" s="291"/>
+      <c r="R8" s="291"/>
+      <c r="S8" s="291"/>
+      <c r="T8" s="291"/>
+      <c r="U8" s="292"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="25"/>
       <c r="B9" s="27" t="s">
         <v>40</v>
@@ -4784,8 +4938,19 @@
         <v>43</v>
       </c>
       <c r="F9" s="102"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="K9" s="290"/>
+      <c r="L9" s="291"/>
+      <c r="M9" s="291"/>
+      <c r="N9" s="291"/>
+      <c r="O9" s="291"/>
+      <c r="P9" s="291"/>
+      <c r="Q9" s="291"/>
+      <c r="R9" s="291"/>
+      <c r="S9" s="291"/>
+      <c r="T9" s="291"/>
+      <c r="U9" s="292"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="28" t="s">
         <v>11</v>
       </c>
@@ -4802,8 +4967,19 @@
         <v>0.2</v>
       </c>
       <c r="F10" s="102"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="K10" s="290"/>
+      <c r="L10" s="291"/>
+      <c r="M10" s="291"/>
+      <c r="N10" s="291"/>
+      <c r="O10" s="291"/>
+      <c r="P10" s="291"/>
+      <c r="Q10" s="291"/>
+      <c r="R10" s="291"/>
+      <c r="S10" s="291"/>
+      <c r="T10" s="291"/>
+      <c r="U10" s="292"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="28" t="s">
         <v>12</v>
       </c>
@@ -4820,16 +4996,40 @@
         <v>0.2</v>
       </c>
       <c r="F11" s="102"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="K11" s="290"/>
+      <c r="L11" s="291"/>
+      <c r="M11" s="291"/>
+      <c r="N11" s="291"/>
+      <c r="O11" s="291"/>
+      <c r="P11" s="291"/>
+      <c r="Q11" s="291"/>
+      <c r="R11" s="291"/>
+      <c r="S11" s="291"/>
+      <c r="T11" s="291"/>
+      <c r="U11" s="292"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.2">
       <c r="A12" s="25"/>
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
       <c r="E12" s="71"/>
       <c r="F12" s="102"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="K12" s="293" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="291"/>
+      <c r="M12" s="291"/>
+      <c r="N12" s="291"/>
+      <c r="O12" s="291"/>
+      <c r="P12" s="291"/>
+      <c r="Q12" s="291"/>
+      <c r="R12" s="291"/>
+      <c r="S12" s="291"/>
+      <c r="T12" s="291"/>
+      <c r="U12" s="292"/>
+    </row>
+    <row r="13" spans="1:21" ht="13.2">
       <c r="A13" s="25"/>
       <c r="B13" s="31" t="s">
         <v>6</v>
@@ -4847,8 +5047,21 @@
         <v>10</v>
       </c>
       <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="K13" s="293" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="291"/>
+      <c r="M13" s="291"/>
+      <c r="N13" s="291"/>
+      <c r="O13" s="291"/>
+      <c r="P13" s="291"/>
+      <c r="Q13" s="291"/>
+      <c r="R13" s="291"/>
+      <c r="S13" s="291"/>
+      <c r="T13" s="291"/>
+      <c r="U13" s="292"/>
+    </row>
+    <row r="14" spans="1:21" ht="13.2">
       <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
@@ -4868,8 +5081,21 @@
         <v>1.5</v>
       </c>
       <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="K14" s="293" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="291"/>
+      <c r="M14" s="291"/>
+      <c r="N14" s="291"/>
+      <c r="O14" s="291"/>
+      <c r="P14" s="291"/>
+      <c r="Q14" s="291"/>
+      <c r="R14" s="291"/>
+      <c r="S14" s="291"/>
+      <c r="T14" s="291"/>
+      <c r="U14" s="292"/>
+    </row>
+    <row r="15" spans="1:21" ht="13.2">
       <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
@@ -4889,8 +5115,21 @@
         <v>1</v>
       </c>
       <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="K15" s="293" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="291"/>
+      <c r="M15" s="291"/>
+      <c r="N15" s="291"/>
+      <c r="O15" s="291"/>
+      <c r="P15" s="291"/>
+      <c r="Q15" s="291"/>
+      <c r="R15" s="291"/>
+      <c r="S15" s="291"/>
+      <c r="T15" s="291"/>
+      <c r="U15" s="292"/>
+    </row>
+    <row r="16" spans="1:21" ht="13.2">
       <c r="A16" s="25"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -4898,8 +5137,21 @@
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16" s="293" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="291"/>
+      <c r="M16" s="291"/>
+      <c r="N16" s="291"/>
+      <c r="O16" s="291"/>
+      <c r="P16" s="291"/>
+      <c r="Q16" s="291"/>
+      <c r="R16" s="291"/>
+      <c r="S16" s="291"/>
+      <c r="T16" s="291"/>
+      <c r="U16" s="292"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="25"/>
       <c r="B17" s="31" t="s">
         <v>6</v>
@@ -4917,8 +5169,19 @@
         <v>10</v>
       </c>
       <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="K17" s="290"/>
+      <c r="L17" s="291"/>
+      <c r="M17" s="291"/>
+      <c r="N17" s="291"/>
+      <c r="O17" s="291"/>
+      <c r="P17" s="291"/>
+      <c r="Q17" s="291"/>
+      <c r="R17" s="291"/>
+      <c r="S17" s="291"/>
+      <c r="T17" s="291"/>
+      <c r="U17" s="292"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="28" t="s">
         <v>40</v>
       </c>
@@ -4938,8 +5201,19 @@
         <v>3</v>
       </c>
       <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18" s="290"/>
+      <c r="L18" s="291"/>
+      <c r="M18" s="291"/>
+      <c r="N18" s="291"/>
+      <c r="O18" s="291"/>
+      <c r="P18" s="291"/>
+      <c r="Q18" s="291"/>
+      <c r="R18" s="291"/>
+      <c r="S18" s="291"/>
+      <c r="T18" s="291"/>
+      <c r="U18" s="292"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="28" t="s">
         <v>41</v>
       </c>
@@ -4959,8 +5233,19 @@
         <v>0.5</v>
       </c>
       <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="K19" s="290"/>
+      <c r="L19" s="291"/>
+      <c r="M19" s="291"/>
+      <c r="N19" s="291"/>
+      <c r="O19" s="291"/>
+      <c r="P19" s="291"/>
+      <c r="Q19" s="291"/>
+      <c r="R19" s="291"/>
+      <c r="S19" s="291"/>
+      <c r="T19" s="291"/>
+      <c r="U19" s="292"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="28" t="s">
         <v>42</v>
       </c>
@@ -4980,8 +5265,19 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K20" s="290"/>
+      <c r="L20" s="291"/>
+      <c r="M20" s="291"/>
+      <c r="N20" s="291"/>
+      <c r="O20" s="291"/>
+      <c r="P20" s="291"/>
+      <c r="Q20" s="291"/>
+      <c r="R20" s="291"/>
+      <c r="S20" s="291"/>
+      <c r="T20" s="291"/>
+      <c r="U20" s="292"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.2" thickBot="1">
       <c r="A21" s="39" t="s">
         <v>43</v>
       </c>
@@ -5001,11 +5297,34 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" ht="3.75" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="23" spans="1:8" ht="13.2" thickTop="1">
+      <c r="K21" s="290"/>
+      <c r="L21" s="291"/>
+      <c r="M21" s="291"/>
+      <c r="N21" s="291"/>
+      <c r="O21" s="291"/>
+      <c r="P21" s="291"/>
+      <c r="Q21" s="291"/>
+      <c r="R21" s="291"/>
+      <c r="S21" s="291"/>
+      <c r="T21" s="291"/>
+      <c r="U21" s="292"/>
+    </row>
+    <row r="22" spans="1:21" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="K22" s="290"/>
+      <c r="L22" s="291"/>
+      <c r="M22" s="291"/>
+      <c r="N22" s="291"/>
+      <c r="O22" s="291"/>
+      <c r="P22" s="291"/>
+      <c r="Q22" s="291"/>
+      <c r="R22" s="291"/>
+      <c r="S22" s="291"/>
+      <c r="T22" s="291"/>
+      <c r="U22" s="292"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.8" thickTop="1">
       <c r="A23" s="43" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -5014,8 +5333,21 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K23" s="293" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="291"/>
+      <c r="M23" s="291"/>
+      <c r="N23" s="291"/>
+      <c r="O23" s="291"/>
+      <c r="P23" s="291"/>
+      <c r="Q23" s="291"/>
+      <c r="R23" s="291"/>
+      <c r="S23" s="291"/>
+      <c r="T23" s="291"/>
+      <c r="U23" s="292"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.8" thickBot="1">
       <c r="A24" s="25"/>
       <c r="B24" s="27" t="s">
         <v>40</v>
@@ -5034,78 +5366,130 @@
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="K24" s="293" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="291"/>
+      <c r="M24" s="291"/>
+      <c r="N24" s="291"/>
+      <c r="O24" s="291"/>
+      <c r="P24" s="291"/>
+      <c r="Q24" s="291"/>
+      <c r="R24" s="291"/>
+      <c r="S24" s="291"/>
+      <c r="T24" s="291"/>
+      <c r="U24" s="292"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.2">
       <c r="A25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="45">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C25" s="46">
-        <v>19999.999995932736</v>
+        <v>20000</v>
       </c>
       <c r="D25" s="46">
         <v>0</v>
       </c>
       <c r="E25" s="47">
-        <v>14999.999999672582</v>
+        <v>15000</v>
       </c>
       <c r="F25" s="48">
         <f>SUM(B25:E25)</f>
-        <v>34999.999995605322</v>
+        <v>38000</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K25" s="293" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" s="291"/>
+      <c r="M25" s="291"/>
+      <c r="N25" s="291"/>
+      <c r="O25" s="291"/>
+      <c r="P25" s="291"/>
+      <c r="Q25" s="291"/>
+      <c r="R25" s="291"/>
+      <c r="S25" s="291"/>
+      <c r="T25" s="291"/>
+      <c r="U25" s="292"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.8" thickBot="1">
       <c r="A26" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="53">
-        <v>44999.999999999556</v>
+        <v>0</v>
       </c>
       <c r="C26" s="54">
         <v>0</v>
       </c>
       <c r="D26" s="54">
-        <v>10999.99993067349</v>
+        <v>12000</v>
       </c>
       <c r="E26" s="55">
         <v>0</v>
       </c>
       <c r="F26" s="56">
         <f>SUM(B26:E26)</f>
-        <v>55999.999930673046</v>
+        <v>12000</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K26" s="293" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" s="291"/>
+      <c r="M26" s="291"/>
+      <c r="N26" s="291"/>
+      <c r="O26" s="291"/>
+      <c r="P26" s="291"/>
+      <c r="Q26" s="291"/>
+      <c r="R26" s="291"/>
+      <c r="S26" s="291"/>
+      <c r="T26" s="291"/>
+      <c r="U26" s="292"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.8" thickBot="1">
       <c r="A27" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="54">
         <f>SUM(B25:B26)</f>
-        <v>44999.999999999556</v>
+        <v>3000</v>
       </c>
       <c r="C27" s="54">
         <f>SUM(C25:C26)</f>
-        <v>19999.999995932736</v>
+        <v>20000</v>
       </c>
       <c r="D27" s="54">
         <f>SUM(D25:D26)</f>
-        <v>10999.99993067349</v>
+        <v>12000</v>
       </c>
       <c r="E27" s="54">
         <f>SUM(E25:E26)</f>
-        <v>14999.999999672582</v>
+        <v>15000</v>
       </c>
       <c r="F27" s="50"/>
       <c r="G27" s="103"/>
       <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K27" s="293" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" s="291"/>
+      <c r="M27" s="291"/>
+      <c r="N27" s="291"/>
+      <c r="O27" s="291"/>
+      <c r="P27" s="291"/>
+      <c r="Q27" s="291"/>
+      <c r="R27" s="291"/>
+      <c r="S27" s="291"/>
+      <c r="T27" s="291"/>
+      <c r="U27" s="292"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.8" thickBot="1">
       <c r="A28" s="28" t="s">
         <v>15</v>
       </c>
@@ -5124,8 +5508,21 @@
       <c r="F28" s="50"/>
       <c r="G28" s="103"/>
       <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="K28" s="293" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" s="291"/>
+      <c r="M28" s="291"/>
+      <c r="N28" s="291"/>
+      <c r="O28" s="291"/>
+      <c r="P28" s="291"/>
+      <c r="Q28" s="291"/>
+      <c r="R28" s="291"/>
+      <c r="S28" s="291"/>
+      <c r="T28" s="291"/>
+      <c r="U28" s="292"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.2">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -5134,8 +5531,21 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K29" s="293" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" s="291"/>
+      <c r="M29" s="291"/>
+      <c r="N29" s="291"/>
+      <c r="O29" s="291"/>
+      <c r="P29" s="291"/>
+      <c r="Q29" s="291"/>
+      <c r="R29" s="291"/>
+      <c r="S29" s="291"/>
+      <c r="T29" s="291"/>
+      <c r="U29" s="292"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.8" thickBot="1">
       <c r="A30" s="25"/>
       <c r="B30" s="31" t="s">
         <v>6</v>
@@ -5156,13 +5566,26 @@
         <v>14</v>
       </c>
       <c r="H30" s="102"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="K30" s="293" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" s="291"/>
+      <c r="M30" s="291"/>
+      <c r="N30" s="291"/>
+      <c r="O30" s="291"/>
+      <c r="P30" s="291"/>
+      <c r="Q30" s="291"/>
+      <c r="R30" s="291"/>
+      <c r="S30" s="291"/>
+      <c r="T30" s="291"/>
+      <c r="U30" s="292"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.2">
       <c r="A31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="45">
-        <v>9999.999999992724</v>
+        <v>18000</v>
       </c>
       <c r="C31" s="46">
         <v>0</v>
@@ -5171,20 +5594,33 @@
         <v>0</v>
       </c>
       <c r="E31" s="46">
-        <v>15000.00007000304</v>
+        <v>0</v>
       </c>
       <c r="F31" s="47">
         <v>0</v>
       </c>
       <c r="G31" s="48">
         <f>SUM(B31:F31)</f>
-        <v>25000.000069995764</v>
+        <v>18000</v>
       </c>
       <c r="H31" s="32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K31" s="293" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" s="291"/>
+      <c r="M31" s="291"/>
+      <c r="N31" s="291"/>
+      <c r="O31" s="291"/>
+      <c r="P31" s="291"/>
+      <c r="Q31" s="291"/>
+      <c r="R31" s="291"/>
+      <c r="S31" s="291"/>
+      <c r="T31" s="291"/>
+      <c r="U31" s="292"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.8" thickBot="1">
       <c r="A32" s="28" t="s">
         <v>12</v>
       </c>
@@ -5198,20 +5634,33 @@
         <v>0</v>
       </c>
       <c r="E32" s="54">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="F32" s="55">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G32" s="56">
         <f>SUM(B32:F32)</f>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="H32" s="32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32" s="293" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" s="291"/>
+      <c r="M32" s="291"/>
+      <c r="N32" s="291"/>
+      <c r="O32" s="291"/>
+      <c r="P32" s="291"/>
+      <c r="Q32" s="291"/>
+      <c r="R32" s="291"/>
+      <c r="S32" s="291"/>
+      <c r="T32" s="291"/>
+      <c r="U32" s="292"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -5222,13 +5671,26 @@
       <c r="F33" s="26"/>
       <c r="G33" s="50">
         <f>SUM(F25,G31)</f>
-        <v>60000.000065601082</v>
+        <v>56000</v>
       </c>
       <c r="H33" s="72">
         <v>60000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K33" s="293" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" s="291"/>
+      <c r="M33" s="291"/>
+      <c r="N33" s="291"/>
+      <c r="O33" s="291"/>
+      <c r="P33" s="291"/>
+      <c r="Q33" s="291"/>
+      <c r="R33" s="291"/>
+      <c r="S33" s="291"/>
+      <c r="T33" s="291"/>
+      <c r="U33" s="292"/>
+    </row>
+    <row r="34" spans="1:21" ht="13.8" thickBot="1">
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -5239,13 +5701,26 @@
       <c r="F34" s="26"/>
       <c r="G34" s="50">
         <f>SUM(F26,G32)</f>
-        <v>55999.999930673046</v>
+        <v>60000</v>
       </c>
       <c r="H34" s="74">
         <v>60000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34" s="293" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="291"/>
+      <c r="M34" s="291"/>
+      <c r="N34" s="291"/>
+      <c r="O34" s="291"/>
+      <c r="P34" s="291"/>
+      <c r="Q34" s="291"/>
+      <c r="R34" s="291"/>
+      <c r="S34" s="291"/>
+      <c r="T34" s="291"/>
+      <c r="U34" s="292"/>
+    </row>
+    <row r="35" spans="1:21" ht="13.2">
       <c r="A35" s="25"/>
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
@@ -5254,8 +5729,21 @@
       <c r="F35" s="107"/>
       <c r="G35" s="107"/>
       <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K35" s="293" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="291"/>
+      <c r="M35" s="291"/>
+      <c r="N35" s="291"/>
+      <c r="O35" s="291"/>
+      <c r="P35" s="291"/>
+      <c r="Q35" s="291"/>
+      <c r="R35" s="291"/>
+      <c r="S35" s="291"/>
+      <c r="T35" s="291"/>
+      <c r="U35" s="292"/>
+    </row>
+    <row r="36" spans="1:21" ht="13.8" thickBot="1">
       <c r="A36" s="25"/>
       <c r="B36" s="108" t="s">
         <v>6</v>
@@ -5276,8 +5764,21 @@
         <v>14</v>
       </c>
       <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36" s="293" t="s">
+        <v>245</v>
+      </c>
+      <c r="L36" s="291"/>
+      <c r="M36" s="291"/>
+      <c r="N36" s="291"/>
+      <c r="O36" s="291"/>
+      <c r="P36" s="291"/>
+      <c r="Q36" s="291"/>
+      <c r="R36" s="291"/>
+      <c r="S36" s="291"/>
+      <c r="T36" s="291"/>
+      <c r="U36" s="292"/>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="28" t="s">
         <v>40</v>
       </c>
@@ -5285,32 +5786,43 @@
         <v>0</v>
       </c>
       <c r="C37" s="46">
-        <v>23000</v>
+        <v>3000</v>
       </c>
       <c r="D37" s="46">
         <v>0</v>
       </c>
       <c r="E37" s="46">
-        <v>16999.999929997335</v>
+        <v>0</v>
       </c>
       <c r="F37" s="47">
-        <v>5000.0000689845338</v>
+        <v>0</v>
       </c>
       <c r="G37" s="48">
         <f>SUM(B37:F37)</f>
-        <v>44999.999998981868</v>
+        <v>3000</v>
       </c>
       <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="K37" s="290"/>
+      <c r="L37" s="291"/>
+      <c r="M37" s="291"/>
+      <c r="N37" s="291"/>
+      <c r="O37" s="291"/>
+      <c r="P37" s="291"/>
+      <c r="Q37" s="291"/>
+      <c r="R37" s="291"/>
+      <c r="S37" s="291"/>
+      <c r="T37" s="291"/>
+      <c r="U37" s="292"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="49">
-        <v>19999.99999593274</v>
+        <v>0</v>
       </c>
       <c r="C38" s="50">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D38" s="50">
         <v>0</v>
@@ -5323,16 +5835,27 @@
       </c>
       <c r="G38" s="52">
         <f>SUM(B38:F38)</f>
-        <v>19999.99999593274</v>
+        <v>20000</v>
       </c>
       <c r="H38" s="24"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="K38" s="290"/>
+      <c r="L38" s="291"/>
+      <c r="M38" s="291"/>
+      <c r="N38" s="291"/>
+      <c r="O38" s="291"/>
+      <c r="P38" s="291"/>
+      <c r="Q38" s="291"/>
+      <c r="R38" s="291"/>
+      <c r="S38" s="291"/>
+      <c r="T38" s="291"/>
+      <c r="U38" s="292"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="49">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="C39" s="50">
         <v>0</v>
@@ -5344,15 +5867,26 @@
         <v>0</v>
       </c>
       <c r="F39" s="51">
-        <v>10999.99993067349</v>
+        <v>0</v>
       </c>
       <c r="G39" s="52">
         <f>SUM(B39:F39)</f>
-        <v>10999.99993067349</v>
+        <v>12000</v>
       </c>
       <c r="H39" s="24"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K39" s="290"/>
+      <c r="L39" s="291"/>
+      <c r="M39" s="291"/>
+      <c r="N39" s="291"/>
+      <c r="O39" s="291"/>
+      <c r="P39" s="291"/>
+      <c r="Q39" s="291"/>
+      <c r="R39" s="291"/>
+      <c r="S39" s="291"/>
+      <c r="T39" s="291"/>
+      <c r="U39" s="292"/>
+    </row>
+    <row r="40" spans="1:21" ht="13.2" thickBot="1">
       <c r="A40" s="28" t="s">
         <v>43</v>
       </c>
@@ -5363,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="54">
-        <v>14999.999999678133</v>
+        <v>15000</v>
       </c>
       <c r="E40" s="54">
         <v>0</v>
@@ -5373,17 +5907,28 @@
       </c>
       <c r="G40" s="56">
         <f>SUM(B40:F40)</f>
-        <v>14999.999999678133</v>
+        <v>15000</v>
       </c>
       <c r="H40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K40" s="290"/>
+      <c r="L40" s="291"/>
+      <c r="M40" s="291"/>
+      <c r="N40" s="291"/>
+      <c r="O40" s="291"/>
+      <c r="P40" s="291"/>
+      <c r="Q40" s="291"/>
+      <c r="R40" s="291"/>
+      <c r="S40" s="291"/>
+      <c r="T40" s="291"/>
+      <c r="U40" s="292"/>
+    </row>
+    <row r="41" spans="1:21" ht="13.2" thickBot="1">
       <c r="A41" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="109">
         <f>SUM(B31:B32,B37:B40)</f>
-        <v>29999.999995925464</v>
+        <v>30000</v>
       </c>
       <c r="C41" s="110">
         <f>SUM(C31:C32,C37:C40)</f>
@@ -5391,20 +5936,31 @@
       </c>
       <c r="D41" s="110">
         <f>SUM(D31:D32,D37:D40)</f>
-        <v>14999.999999678133</v>
+        <v>15000</v>
       </c>
       <c r="E41" s="110">
         <f>SUM(E31:E32,E37:E40)</f>
-        <v>32000.000000000375</v>
+        <v>32000</v>
       </c>
       <c r="F41" s="111">
         <f>SUM(F31:F32,F37:F40)</f>
-        <v>15999.999999658023</v>
+        <v>16000</v>
       </c>
       <c r="G41" s="50"/>
       <c r="H41" s="58"/>
-    </row>
-    <row r="42" spans="1:8" ht="13.2" thickBot="1">
+      <c r="K41" s="290"/>
+      <c r="L41" s="291"/>
+      <c r="M41" s="291"/>
+      <c r="N41" s="291"/>
+      <c r="O41" s="291"/>
+      <c r="P41" s="291"/>
+      <c r="Q41" s="291"/>
+      <c r="R41" s="291"/>
+      <c r="S41" s="291"/>
+      <c r="T41" s="291"/>
+      <c r="U41" s="292"/>
+    </row>
+    <row r="42" spans="1:21" ht="13.2" thickBot="1">
       <c r="A42" s="39" t="s">
         <v>47</v>
       </c>
@@ -5425,8 +5981,19 @@
       </c>
       <c r="G42" s="112"/>
       <c r="H42" s="113"/>
-    </row>
-    <row r="43" spans="1:8" ht="5.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="K42" s="290"/>
+      <c r="L42" s="291"/>
+      <c r="M42" s="291"/>
+      <c r="N42" s="291"/>
+      <c r="O42" s="291"/>
+      <c r="P42" s="291"/>
+      <c r="Q42" s="291"/>
+      <c r="R42" s="291"/>
+      <c r="S42" s="291"/>
+      <c r="T42" s="291"/>
+      <c r="U42" s="292"/>
+    </row>
+    <row r="43" spans="1:21" ht="5.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A43" s="114"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -5435,25 +6002,71 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.8" thickTop="1" thickBot="1">
+      <c r="K43" s="290"/>
+      <c r="L43" s="291"/>
+      <c r="M43" s="291"/>
+      <c r="N43" s="291"/>
+      <c r="O43" s="291"/>
+      <c r="P43" s="291"/>
+      <c r="Q43" s="291"/>
+      <c r="R43" s="291"/>
+      <c r="S43" s="291"/>
+      <c r="T43" s="291"/>
+      <c r="U43" s="292"/>
+    </row>
+    <row r="44" spans="1:21" ht="13.8" thickTop="1" thickBot="1">
       <c r="A44" s="88" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="91"/>
       <c r="C44" s="90">
         <f>SUMPRODUCT(B10:E11,B25:E26)+SUMPRODUCT(B14:F15,B31:F32)+SUMPRODUCT(B18:F21,B37:F40)</f>
-        <v>237000.000166385</v>
+        <v>145500</v>
       </c>
       <c r="D44" s="91"/>
       <c r="E44" s="91"/>
       <c r="F44" s="91"/>
       <c r="G44" s="91"/>
       <c r="H44" s="92"/>
-    </row>
-    <row r="45" spans="1:8" ht="13.2" thickTop="1"/>
-    <row r="46" spans="1:8" ht="13.2" thickBot="1"/>
-    <row r="47" spans="1:8" ht="13.2" thickTop="1">
+      <c r="K44" s="290"/>
+      <c r="L44" s="291"/>
+      <c r="M44" s="291"/>
+      <c r="N44" s="291"/>
+      <c r="O44" s="291"/>
+      <c r="P44" s="291"/>
+      <c r="Q44" s="291"/>
+      <c r="R44" s="291"/>
+      <c r="S44" s="291"/>
+      <c r="T44" s="291"/>
+      <c r="U44" s="292"/>
+    </row>
+    <row r="45" spans="1:21" ht="13.2" thickTop="1">
+      <c r="K45" s="290"/>
+      <c r="L45" s="291"/>
+      <c r="M45" s="291"/>
+      <c r="N45" s="291"/>
+      <c r="O45" s="291"/>
+      <c r="P45" s="291"/>
+      <c r="Q45" s="291"/>
+      <c r="R45" s="291"/>
+      <c r="S45" s="291"/>
+      <c r="T45" s="291"/>
+      <c r="U45" s="292"/>
+    </row>
+    <row r="46" spans="1:21" ht="13.2" thickBot="1">
+      <c r="K46" s="290"/>
+      <c r="L46" s="291"/>
+      <c r="M46" s="291"/>
+      <c r="N46" s="291"/>
+      <c r="O46" s="291"/>
+      <c r="P46" s="291"/>
+      <c r="Q46" s="291"/>
+      <c r="R46" s="291"/>
+      <c r="S46" s="291"/>
+      <c r="T46" s="291"/>
+      <c r="U46" s="292"/>
+    </row>
+    <row r="47" spans="1:21" ht="13.8" thickTop="1">
       <c r="A47" s="266" t="s">
         <v>18</v>
       </c>
@@ -5464,8 +6077,21 @@
       <c r="F47" s="255"/>
       <c r="G47" s="255"/>
       <c r="H47" s="256"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="K47" s="293" t="s">
+        <v>209</v>
+      </c>
+      <c r="L47" s="291"/>
+      <c r="M47" s="291"/>
+      <c r="N47" s="291"/>
+      <c r="O47" s="291"/>
+      <c r="P47" s="291"/>
+      <c r="Q47" s="291"/>
+      <c r="R47" s="291"/>
+      <c r="S47" s="291"/>
+      <c r="T47" s="291"/>
+      <c r="U47" s="292"/>
+    </row>
+    <row r="48" spans="1:21" ht="13.2">
       <c r="A48" s="262" t="s">
         <v>48</v>
       </c>
@@ -5476,8 +6102,21 @@
       <c r="F48" s="257"/>
       <c r="G48" s="257"/>
       <c r="H48" s="258"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="K48" s="293" t="s">
+        <v>246</v>
+      </c>
+      <c r="L48" s="291"/>
+      <c r="M48" s="291"/>
+      <c r="N48" s="291"/>
+      <c r="O48" s="291"/>
+      <c r="P48" s="291"/>
+      <c r="Q48" s="291"/>
+      <c r="R48" s="291"/>
+      <c r="S48" s="291"/>
+      <c r="T48" s="291"/>
+      <c r="U48" s="292"/>
+    </row>
+    <row r="49" spans="1:21" ht="13.2">
       <c r="A49" s="262" t="s">
         <v>49</v>
       </c>
@@ -5488,8 +6127,21 @@
       <c r="F49" s="257"/>
       <c r="G49" s="257"/>
       <c r="H49" s="258"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="K49" s="293" t="s">
+        <v>247</v>
+      </c>
+      <c r="L49" s="291"/>
+      <c r="M49" s="291"/>
+      <c r="N49" s="291"/>
+      <c r="O49" s="291"/>
+      <c r="P49" s="291"/>
+      <c r="Q49" s="291"/>
+      <c r="R49" s="291"/>
+      <c r="S49" s="291"/>
+      <c r="T49" s="291"/>
+      <c r="U49" s="292"/>
+    </row>
+    <row r="50" spans="1:21" ht="13.2">
       <c r="A50" s="262" t="s">
         <v>50</v>
       </c>
@@ -5500,8 +6152,21 @@
       <c r="F50" s="257"/>
       <c r="G50" s="257"/>
       <c r="H50" s="258"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="K50" s="293" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" s="291"/>
+      <c r="M50" s="291"/>
+      <c r="N50" s="291"/>
+      <c r="O50" s="291"/>
+      <c r="P50" s="291"/>
+      <c r="Q50" s="291"/>
+      <c r="R50" s="291"/>
+      <c r="S50" s="291"/>
+      <c r="T50" s="291"/>
+      <c r="U50" s="292"/>
+    </row>
+    <row r="51" spans="1:21" ht="13.8" thickBot="1">
       <c r="A51" s="262" t="s">
         <v>51</v>
       </c>
@@ -5512,8 +6177,21 @@
       <c r="F51" s="257"/>
       <c r="G51" s="257"/>
       <c r="H51" s="258"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="K51" s="294" t="s">
+        <v>249</v>
+      </c>
+      <c r="L51" s="295"/>
+      <c r="M51" s="295"/>
+      <c r="N51" s="295"/>
+      <c r="O51" s="295"/>
+      <c r="P51" s="295"/>
+      <c r="Q51" s="295"/>
+      <c r="R51" s="295"/>
+      <c r="S51" s="295"/>
+      <c r="T51" s="295"/>
+      <c r="U51" s="296"/>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="262"/>
       <c r="B52" s="263"/>
       <c r="C52" s="257"/>
@@ -5523,7 +6201,7 @@
       <c r="G52" s="257"/>
       <c r="H52" s="258"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:21">
       <c r="A53" s="267" t="s">
         <v>22</v>
       </c>
@@ -5535,7 +6213,7 @@
       <c r="G53" s="257"/>
       <c r="H53" s="258"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:21">
       <c r="A54" s="262" t="s">
         <v>52</v>
       </c>
@@ -5547,7 +6225,7 @@
       <c r="G54" s="257"/>
       <c r="H54" s="258"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:21">
       <c r="A55" s="262" t="s">
         <v>53</v>
       </c>
@@ -5559,7 +6237,7 @@
       <c r="G55" s="257"/>
       <c r="H55" s="258"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:21">
       <c r="A56" s="262" t="s">
         <v>54</v>
       </c>
@@ -5571,7 +6249,7 @@
       <c r="G56" s="257"/>
       <c r="H56" s="258"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:21">
       <c r="A57" s="262" t="s">
         <v>55</v>
       </c>
@@ -5583,7 +6261,7 @@
       <c r="G57" s="257"/>
       <c r="H57" s="258"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:21">
       <c r="A58" s="262"/>
       <c r="B58" s="263" t="s">
         <v>56</v>
@@ -5595,7 +6273,7 @@
       <c r="G58" s="257"/>
       <c r="H58" s="258"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:21">
       <c r="A59" s="262"/>
       <c r="B59" s="263" t="s">
         <v>57</v>
@@ -5607,7 +6285,7 @@
       <c r="G59" s="257"/>
       <c r="H59" s="258"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:21">
       <c r="A60" s="262"/>
       <c r="B60" s="263" t="s">
         <v>58</v>
@@ -5619,7 +6297,7 @@
       <c r="G60" s="257"/>
       <c r="H60" s="258"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:21">
       <c r="A61" s="262" t="s">
         <v>59</v>
       </c>
@@ -5631,7 +6309,7 @@
       <c r="G61" s="257"/>
       <c r="H61" s="258"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:21">
       <c r="A62" s="262"/>
       <c r="B62" s="263" t="s">
         <v>60</v>
@@ -5643,7 +6321,7 @@
       <c r="G62" s="257"/>
       <c r="H62" s="258"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:21">
       <c r="A63" s="262"/>
       <c r="B63" s="263" t="s">
         <v>61</v>
@@ -5655,7 +6333,7 @@
       <c r="G63" s="257"/>
       <c r="H63" s="258"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:21">
       <c r="A64" s="262"/>
       <c r="B64" s="263" t="s">
         <v>62</v>
@@ -7869,7 +8547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6"/>
   <cols>
@@ -8612,7 +9290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6"/>
   <cols>
@@ -9388,7 +10066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A103" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6"/>
   <cols>

--- a/26. Recherche opérationelle en Excel/12 - MULTIPLE- EXCELLENT FICHIER AVEC TRANSPORT,SAC A DOS,/Distribution et logistique - Examples multiples .xlsx
+++ b/26. Recherche opérationelle en Excel/12 - MULTIPLE- EXCELLENT FICHIER AVEC TRANSPORT,SAC A DOS,/Distribution et logistique - Examples multiples .xlsx
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="275">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1527,6 +1527,15 @@
   <si>
     <t>Total products shipped out of usine 2</t>
   </si>
+  <si>
+    <t xml:space="preserve">ASPECT DE LA FUNCTION OBJECTIF DANS EXCEL </t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(B10:E11;B25:E26)+SUMPRODUCT(B14:F15;B31:F32)+SUMPRODUCT(B18:F21;B37:F40)</t>
+  </si>
+  <si>
+    <t>ON RETROUVE LES NOMS DES GROUPES DE CELLULES SOUS LONGLET FORMULAT DANS NAME MANAGER</t>
+  </si>
 </sst>
 </file>
 
@@ -1536,7 +1545,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -1610,8 +1619,13 @@
       <color theme="1"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1691,6 +1705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2755,7 +2775,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3522,6 +3542,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5025,7 +5047,7 @@
   <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6"/>
@@ -6540,6 +6562,19 @@
       <c r="F56" s="254"/>
       <c r="G56" s="254"/>
       <c r="H56" s="255"/>
+      <c r="K56" s="330" t="s">
+        <v>272</v>
+      </c>
+      <c r="L56" s="330"/>
+      <c r="M56" s="330"/>
+      <c r="N56" s="330"/>
+      <c r="O56" s="330"/>
+      <c r="P56" s="330"/>
+      <c r="Q56" s="330"/>
+      <c r="R56" s="330"/>
+      <c r="S56" s="330"/>
+      <c r="T56" s="330"/>
+      <c r="U56" s="330"/>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="259" t="s">
@@ -6552,6 +6587,19 @@
       <c r="F57" s="254"/>
       <c r="G57" s="254"/>
       <c r="H57" s="255"/>
+      <c r="K57" s="331" t="s">
+        <v>273</v>
+      </c>
+      <c r="L57" s="330"/>
+      <c r="M57" s="330"/>
+      <c r="N57" s="330"/>
+      <c r="O57" s="330"/>
+      <c r="P57" s="330"/>
+      <c r="Q57" s="330"/>
+      <c r="R57" s="330"/>
+      <c r="S57" s="330"/>
+      <c r="T57" s="330"/>
+      <c r="U57" s="330"/>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="259"/>
@@ -6564,6 +6612,17 @@
       <c r="F58" s="254"/>
       <c r="G58" s="254"/>
       <c r="H58" s="255"/>
+      <c r="K58" s="330"/>
+      <c r="L58" s="330"/>
+      <c r="M58" s="330"/>
+      <c r="N58" s="330"/>
+      <c r="O58" s="330"/>
+      <c r="P58" s="330"/>
+      <c r="Q58" s="330"/>
+      <c r="R58" s="330"/>
+      <c r="S58" s="330"/>
+      <c r="T58" s="330"/>
+      <c r="U58" s="330"/>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="259"/>
@@ -6576,6 +6635,19 @@
       <c r="F59" s="254"/>
       <c r="G59" s="254"/>
       <c r="H59" s="255"/>
+      <c r="K59" s="330" t="s">
+        <v>274</v>
+      </c>
+      <c r="L59" s="330"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="330"/>
+      <c r="O59" s="330"/>
+      <c r="P59" s="330"/>
+      <c r="Q59" s="330"/>
+      <c r="R59" s="330"/>
+      <c r="S59" s="330"/>
+      <c r="T59" s="330"/>
+      <c r="U59" s="330"/>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="259"/>
@@ -6588,6 +6660,17 @@
       <c r="F60" s="254"/>
       <c r="G60" s="254"/>
       <c r="H60" s="255"/>
+      <c r="K60" s="330"/>
+      <c r="L60" s="330"/>
+      <c r="M60" s="330"/>
+      <c r="N60" s="330"/>
+      <c r="O60" s="330"/>
+      <c r="P60" s="330"/>
+      <c r="Q60" s="330"/>
+      <c r="R60" s="330"/>
+      <c r="S60" s="330"/>
+      <c r="T60" s="330"/>
+      <c r="U60" s="330"/>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="259" t="s">
@@ -6600,6 +6683,17 @@
       <c r="F61" s="254"/>
       <c r="G61" s="254"/>
       <c r="H61" s="255"/>
+      <c r="K61" s="330"/>
+      <c r="L61" s="330"/>
+      <c r="M61" s="330"/>
+      <c r="N61" s="330"/>
+      <c r="O61" s="330"/>
+      <c r="P61" s="330"/>
+      <c r="Q61" s="330"/>
+      <c r="R61" s="330"/>
+      <c r="S61" s="330"/>
+      <c r="T61" s="330"/>
+      <c r="U61" s="330"/>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="259"/>
@@ -6612,6 +6706,17 @@
       <c r="F62" s="254"/>
       <c r="G62" s="254"/>
       <c r="H62" s="255"/>
+      <c r="K62" s="330"/>
+      <c r="L62" s="330"/>
+      <c r="M62" s="330"/>
+      <c r="N62" s="330"/>
+      <c r="O62" s="330"/>
+      <c r="P62" s="330"/>
+      <c r="Q62" s="330"/>
+      <c r="R62" s="330"/>
+      <c r="S62" s="330"/>
+      <c r="T62" s="330"/>
+      <c r="U62" s="330"/>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="259"/>
@@ -6624,6 +6729,17 @@
       <c r="F63" s="254"/>
       <c r="G63" s="254"/>
       <c r="H63" s="255"/>
+      <c r="K63" s="330"/>
+      <c r="L63" s="330"/>
+      <c r="M63" s="330"/>
+      <c r="N63" s="330"/>
+      <c r="O63" s="330"/>
+      <c r="P63" s="330"/>
+      <c r="Q63" s="330"/>
+      <c r="R63" s="330"/>
+      <c r="S63" s="330"/>
+      <c r="T63" s="330"/>
+      <c r="U63" s="330"/>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="259"/>
@@ -6636,8 +6752,19 @@
       <c r="F64" s="254"/>
       <c r="G64" s="254"/>
       <c r="H64" s="255"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="K64" s="330"/>
+      <c r="L64" s="330"/>
+      <c r="M64" s="330"/>
+      <c r="N64" s="330"/>
+      <c r="O64" s="330"/>
+      <c r="P64" s="330"/>
+      <c r="Q64" s="330"/>
+      <c r="R64" s="330"/>
+      <c r="S64" s="330"/>
+      <c r="T64" s="330"/>
+      <c r="U64" s="330"/>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="259"/>
       <c r="B65" s="260" t="s">
         <v>62</v>
@@ -6648,8 +6775,19 @@
       <c r="F65" s="254"/>
       <c r="G65" s="254"/>
       <c r="H65" s="255"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="K65" s="330"/>
+      <c r="L65" s="330"/>
+      <c r="M65" s="330"/>
+      <c r="N65" s="330"/>
+      <c r="O65" s="330"/>
+      <c r="P65" s="330"/>
+      <c r="Q65" s="330"/>
+      <c r="R65" s="330"/>
+      <c r="S65" s="330"/>
+      <c r="T65" s="330"/>
+      <c r="U65" s="330"/>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="259" t="s">
         <v>63</v>
       </c>
@@ -6660,8 +6798,19 @@
       <c r="F66" s="254"/>
       <c r="G66" s="254"/>
       <c r="H66" s="255"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="K66" s="330"/>
+      <c r="L66" s="330"/>
+      <c r="M66" s="330"/>
+      <c r="N66" s="330"/>
+      <c r="O66" s="330"/>
+      <c r="P66" s="330"/>
+      <c r="Q66" s="330"/>
+      <c r="R66" s="330"/>
+      <c r="S66" s="330"/>
+      <c r="T66" s="330"/>
+      <c r="U66" s="330"/>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="259"/>
       <c r="B67" s="260"/>
       <c r="C67" s="254"/>
@@ -6670,8 +6819,19 @@
       <c r="F67" s="254"/>
       <c r="G67" s="254"/>
       <c r="H67" s="255"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="K67" s="330"/>
+      <c r="L67" s="330"/>
+      <c r="M67" s="330"/>
+      <c r="N67" s="330"/>
+      <c r="O67" s="330"/>
+      <c r="P67" s="330"/>
+      <c r="Q67" s="330"/>
+      <c r="R67" s="330"/>
+      <c r="S67" s="330"/>
+      <c r="T67" s="330"/>
+      <c r="U67" s="330"/>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="264" t="s">
         <v>31</v>
       </c>
@@ -6682,8 +6842,19 @@
       <c r="F68" s="254"/>
       <c r="G68" s="254"/>
       <c r="H68" s="255"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="K68" s="330"/>
+      <c r="L68" s="330"/>
+      <c r="M68" s="330"/>
+      <c r="N68" s="330"/>
+      <c r="O68" s="330"/>
+      <c r="P68" s="330"/>
+      <c r="Q68" s="330"/>
+      <c r="R68" s="330"/>
+      <c r="S68" s="330"/>
+      <c r="T68" s="330"/>
+      <c r="U68" s="330"/>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="259" t="s">
         <v>64</v>
       </c>
@@ -6695,7 +6866,7 @@
       <c r="G69" s="254"/>
       <c r="H69" s="255"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:21">
       <c r="A70" s="259" t="s">
         <v>65</v>
       </c>
@@ -6707,7 +6878,7 @@
       <c r="G70" s="254"/>
       <c r="H70" s="255"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:21">
       <c r="A71" s="259" t="s">
         <v>66</v>
       </c>
@@ -6719,7 +6890,7 @@
       <c r="G71" s="254"/>
       <c r="H71" s="255"/>
     </row>
-    <row r="72" spans="1:8" ht="13.2" thickBot="1">
+    <row r="72" spans="1:21" ht="13.2" thickBot="1">
       <c r="A72" s="261" t="s">
         <v>67</v>
       </c>
@@ -6731,7 +6902,7 @@
       <c r="G72" s="256"/>
       <c r="H72" s="257"/>
     </row>
-    <row r="73" spans="1:8" ht="13.2" thickTop="1"/>
+    <row r="73" spans="1:21" ht="13.2" thickTop="1"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
